--- a/excel-test.xlsx
+++ b/excel-test.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberttimlin/Documents/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberttimlin/Documents/GitHub/python-dev/Python-Excel-main/001-Python_Excel_Read_Write/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA87ED3F-13E5-7448-B6BF-911D84F60660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB855F34-B68E-9E42-9668-A513DE5489F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="3700" windowWidth="26840" windowHeight="15940" xr2:uid="{969D1B24-BF54-3E4A-853F-30DE3DB10D53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -54,6 +54,24 @@
   </si>
   <si>
     <t>333-555-1212</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>tim@test.come</t>
+  </si>
+  <si>
+    <t>333-333-4444</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>jeff@test.com</t>
+  </si>
+  <si>
+    <t>444-555-1234</t>
   </si>
 </sst>
 </file>
@@ -416,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFF8B4C-568F-9347-86E3-AB4A900BCE55}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,9 +464,33 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3917ECC6-98FD-2F4C-81ED-DFA2F975C1AD}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{6464F167-FD79-6143-8278-79179ECA8C68}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{65773A03-9924-A64E-86E6-6246AF3155E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
